--- a/biology/Zoologie/Glyptoporus/Glyptoporus.xlsx
+++ b/biology/Zoologie/Glyptoporus/Glyptoporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyptoporus est un genre de trématodes de la famille des Lecithodendriidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parasite a été découvert sur la Petite chauve-souris brune (Myotis lucifugus)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parasite a été découvert sur la Petite chauve-souris brune (Myotis lucifugus).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (11 août 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (11 août 2019) :
 Glyptoporus noctophilus Macy, 1936</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Ralph W. Macy, « A New Genus and Species of Trematode from the Little Brown Bat and a Key to the Genera of Pleurogenetinae », Proceedings of the United States National Museum, Washington, Inconnu, vol. 83, no 2986,‎ 1936, p. 321–324 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.83-2986.321, lire en ligne)</t>
         </is>
